--- a/smartMeter/sourceData2/fan2U1.xlsx
+++ b/smartMeter/sourceData2/fan2U1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="146">
   <si>
     <t>当前表型:国网表</t>
   </si>
@@ -454,9 +454,6 @@
   </si>
   <si>
     <t>2015/10/27 9:20:14</t>
-  </si>
-  <si>
-    <t>2015/10/27 9:20:19</t>
   </si>
 </sst>
 </file>
@@ -805,7 +802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G122" sqref="A122:G122"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
@@ -2858,21 +2857,8 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
-        <v>701772</v>
-      </c>
-      <c r="B122">
-        <v>131009003274</v>
-      </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>146</v>
-      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
